--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uncommonStudent\Desktop\payslipGenerator_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A57A38-5606-4AA9-9D07-251636D11EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6751BD9-27F2-49E9-9DD4-E31DF435514A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="630" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employees" sheetId="1" r:id="rId1"/>
@@ -81,16 +81,16 @@
     <t>cirisfinance@gmail.com</t>
   </si>
   <si>
-    <t>Denziel Chikwanha</t>
-  </si>
-  <si>
-    <t>denzielchikwanha@gmail.com</t>
-  </si>
-  <si>
     <t>Kirsty Rusere</t>
   </si>
   <si>
     <t>ruserekirsty8@gmail.com</t>
+  </si>
+  <si>
+    <t>Dylan Maupa</t>
+  </si>
+  <si>
+    <t>dylanmaupa@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,16 +589,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="E8">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F8">
         <v>450</v>
@@ -609,10 +609,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>1800</v>
@@ -623,17 +623,20 @@
       <c r="F9">
         <v>100</v>
       </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{C426080F-3A9C-4BD1-94E4-4E5FDAC34432}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{B77524E3-3734-4203-8CCC-AF06770F0664}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{18861832-3F5B-424C-8E15-0EA03651A6C7}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{74D2CBA8-808C-4E40-B52D-F6C1C9146ABE}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{5AFEA577-51C1-49C4-9D90-9E0FAD6526C5}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{DB6232BD-DEBE-4E17-93D4-EE0F62804A9E}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{371AF0CB-7DFA-49CD-9723-72F9516DB93E}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{7D0AA5BA-26B6-4990-A6E2-C33F29BAC218}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{1E6C3F5A-88C4-4150-A0AF-A4A9B2B84D00}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{035890F4-28D2-4F47-BEC7-55FF858D92F5}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{48291109-5320-47BF-BBF1-B9695183B907}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{B45983E6-A86D-4382-BC4D-C8D12401D17F}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{0AE2E03A-E9D2-4C92-89EE-57C82A389B02}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{4ECC03DC-6C86-4E95-8418-AECD6149C619}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{99518594-9EB2-4003-8EF3-ECE4CB7AC964}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
